--- a/Copy of Algorthmic Interviews Sheet - V1.0.xlsx
+++ b/Copy of Algorthmic Interviews Sheet - V1.0.xlsx
@@ -950,13 +950,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.###############"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.###############"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1005,6 +1005,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1014,26 +1021,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,44 +1063,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1093,32 +1071,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,14 +1087,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,6 +1103,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,6 +1228,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1233,7 +1270,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,7 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,7 +1318,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,49 +1384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,85 +1396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,30 +1419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1465,26 +1448,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,165 +1487,191 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1700,7 +1707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1769,6 +1776,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1789,7 +1797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1801,7 +1809,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2198,31 +2206,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:2">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="2:8">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50" t="str">
+      <c r="D2" s="51" t="str">
         <f>HYPERLINK("https://ask.fm/mostafasaad87","Ask.fm")</f>
         <v>Ask.fm</v>
       </c>
-      <c r="E2" s="50" t="str">
+      <c r="E2" s="51" t="str">
         <f>HYPERLINK("https://sites.google.com/site/mostafasibrahim/","Site / More Contacts")</f>
         <v>Site / More Contacts</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" ht="12.75" spans="2:2">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2230,123 +2238,123 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="51" t="str">
+      <c r="E4" s="52" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=DZ6YTtILCE8","Video Introducing roadmap (Arabic) - to min 18 ONLY")</f>
         <v>Video Introducing roadmap (Arabic) - to min 18 ONLY</v>
       </c>
-      <c r="H4" s="51" t="str">
+      <c r="H4" s="52" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=c3lmvYBxgwE","Video explaining the sheet")</f>
         <v>Video explaining the sheet</v>
       </c>
     </row>
     <row r="5" ht="12.75" spans="1:8">
-      <c r="A5" s="52"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" ht="12.75" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="1:8">
-      <c r="A7" s="52"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" ht="12.75" spans="1:2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="1:8">
-      <c r="A9" s="52"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" ht="12.75" spans="1:2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="12.75" spans="1:2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="12" ht="12.75" spans="1:8">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="54" t="str">
+      <c r="D12" s="55" t="str">
         <f>HYPERLINK("https://www.youtube.com/playlist?list=PLPt2dINI2MIZPFq6HyUB1Uhxdh1UDnZMS","C++ Programming")</f>
         <v>C++ Programming</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="51"/>
     </row>
     <row r="13" ht="12.75" spans="2:8">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="54" t="str">
+      <c r="G13" s="55" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/12XlGl2Nae1NXRDNet_bGQ2HM2O3kq-9FS0Jm2pDwFyg/edit#gid=1683044666","Novice RoadMap")</f>
         <v>Novice RoadMap</v>
       </c>
-      <c r="H13" s="54" t="str">
+      <c r="H13" s="55" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=VDKDU5A2AIM&amp;index=4&amp;t=857s&amp;list=PLPt2dINI2MIaNcU070HIAO8JWYBcafuyG","Online Judge")</f>
         <v>Online Judge</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="1:8">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" ht="12.75" spans="1:2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="1:2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2385,7 +2393,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.2857142857143" defaultRowHeight="15.75" customHeight="1"/>
@@ -2526,7 +2534,7 @@
       <c r="L3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2568,7 +2576,7 @@
       <c r="L4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="42" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2610,7 +2618,7 @@
       <c r="L5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="42" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2650,7 +2658,7 @@
       <c r="L6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="42" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2838,7 +2846,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=t05qYeiWGGc","Video Solution - Eng Youssef El Ghareeb")</f>
         <v>Video Solution - Eng Youssef El Ghareeb</v>
       </c>
@@ -2866,7 +2874,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=P73Mv_GG_PY","Video Solution - Eng Youssef Ali")</f>
         <v>Video Solution - Eng Youssef Ali</v>
       </c>
@@ -3140,7 +3148,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=3akdDnmPwOY&amp;feature=youtu.be","Video Solution - Eng Ahmead Raafat (Python)")</f>
         <v>Video Solution - Eng Ahmead Raafat (Python)</v>
       </c>
@@ -3168,7 +3176,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=PECOLs3YWR0&amp;feature=youtu.be","Video Solution - Eng Ahmead Raafat (Python)")</f>
         <v>Video Solution - Eng Ahmead Raafat (Python)</v>
       </c>
@@ -3196,7 +3204,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=mJYiMoX4t0k","Video Solution - Eng Ahmead Raafat (Python)")</f>
         <v>Video Solution - Eng Ahmead Raafat (Python)</v>
       </c>
@@ -3224,7 +3232,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=pBhXYZKAFTM","Video Solution - Eng Yahia Ashraf")</f>
         <v>Video Solution - Eng Yahia Ashraf</v>
       </c>
@@ -3252,7 +3260,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=lFt2GuQtmSs","Video Solution - Eng Yahia Ashraf")</f>
         <v>Video Solution - Eng Yahia Ashraf</v>
       </c>
@@ -3284,7 +3292,7 @@
         <v>56</v>
       </c>
       <c r="L30" s="37"/>
-      <c r="M30" s="43" t="s">
+      <c r="M30" s="44" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3314,7 +3322,7 @@
         <v>56</v>
       </c>
       <c r="L31" s="10"/>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=P73Mv_GG_PY","Video Solution - Eng Ahmead Raafat (Python)")</f>
         <v>Video Solution - Eng Ahmead Raafat (Python)</v>
       </c>
@@ -3342,7 +3350,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=ol_mjArjBCk","Video Solution - Eng Ahmead Raafat (Python)")</f>
         <v>Video Solution - Eng Ahmead Raafat (Python)</v>
       </c>
@@ -3831,10 +3839,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J51" s="44"/>
+      <c r="J51" s="45"/>
       <c r="K51" s="37"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="45" t="s">
+      <c r="L51" s="45"/>
+      <c r="M51" s="46" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4049,7 +4057,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="10"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="46"/>
+      <c r="M59" s="47"/>
     </row>
     <row r="60" ht="12.75" spans="1:13">
       <c r="A60" s="3"/>
@@ -4069,12 +4077,12 @@
       <c r="J60" s="3"/>
       <c r="K60" s="10"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="46" t="str">
+      <c r="M60" s="47" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=jzfcfQVBtKA","Watch - Graph Theory - Intro")</f>
         <v>Watch - Graph Theory - Intro</v>
       </c>
     </row>
-    <row r="61" ht="12.75" spans="1:13">
+    <row r="61" spans="1:13">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="10">
@@ -4092,16 +4100,16 @@
       <c r="J61" s="3"/>
       <c r="K61" s="10"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="46" t="str">
+      <c r="M61" s="47" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=9DP0X2xlPCo","Watch - Graph Theory - DFS")</f>
         <v>Watch - Graph Theory - DFS</v>
       </c>
     </row>
-    <row r="62" ht="12.75" spans="1:13">
+    <row r="62" spans="1:13">
       <c r="A62" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="18" t="str">
+      <c r="B62" s="40" t="str">
         <f>HYPERLINK("https://uva.onlinejudge.org/index.php?option=onlinejudge&amp;page=show_problem&amp;problem=288","UVA 352")</f>
         <v>UVA 352</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>Video Solution - Eng Mohamed Nasser</v>
       </c>
     </row>
-    <row r="63" ht="12.75" spans="1:13">
+    <row r="63" spans="1:13">
       <c r="A63" s="15" t="s">
         <v>102</v>
       </c>
@@ -4232,7 +4240,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="10"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="42" t="str">
+      <c r="M66" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=Rmi_2e6gt5M","Video Solution - Eng Yahia Ashraf")</f>
         <v>Video Solution - Eng Yahia Ashraf</v>
       </c>
@@ -4260,7 +4268,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="10"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="42" t="str">
+      <c r="M67" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=4t-4ZC8BRj8","Video Solution - Eng Yahia Ashraf")</f>
         <v>Video Solution - Eng Yahia Ashraf</v>
       </c>
@@ -4762,16 +4770,16 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="42" t="str">
+      <c r="M86" s="43" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=2R9L6mVal9U","Video Solution - Eng Youssef El Ghareeb")</f>
         <v>Video Solution - Eng Youssef El Ghareeb</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:4">
-      <c r="C87" s="47" t="s">
+      <c r="C87" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D87" s="47"/>
+      <c r="D87" s="48"/>
     </row>
     <row r="88" customHeight="1" spans="3:4">
       <c r="C88" t="s">
